--- a/server/src/static/report.xlsx
+++ b/server/src/static/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,336 +441,658 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>lag_depth</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>well_diam</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>cut_plan_volume</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>lag_depth</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>cut_plan_volume_with_out_well</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>cut_plan_volume_in_well</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>cut_fact_volume_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cut_fact_volume_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>cut_fact_volume_3</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>cut_fact_volume</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cleaning_factor</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2531.26</v>
+        <v>1130.93</v>
       </c>
       <c r="B2" t="n">
-        <v>24362501.53057577</v>
+        <v>1155.23</v>
       </c>
       <c r="C2" t="n">
-        <v>2537</v>
+        <v>112.9</v>
       </c>
       <c r="D2" t="n">
-        <v>24417747.04418777</v>
+        <v>11321749.15</v>
       </c>
       <c r="E2" t="n">
-        <v>-55245.51361199468</v>
+        <v>11565015.62</v>
       </c>
       <c r="F2" t="n">
-        <v>5143</v>
+        <v>-243266.47</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12344</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5143</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002111031165475909</v>
+        <v>12344</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00109</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2531.26</v>
+        <v>1135.66</v>
       </c>
       <c r="B3" t="n">
-        <v>24362501.53057577</v>
+        <v>1155.23</v>
       </c>
       <c r="C3" t="n">
-        <v>2537</v>
+        <v>112.9</v>
       </c>
       <c r="D3" t="n">
-        <v>24417747.04418777</v>
+        <v>11369101.21</v>
       </c>
       <c r="E3" t="n">
-        <v>-55245.51361199468</v>
+        <v>11565015.62</v>
       </c>
       <c r="F3" t="n">
-        <v>10286</v>
+        <v>-195914.41</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>24688</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10286</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0004222062330951818</v>
+        <v>24688</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.00217</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2531.26</v>
+        <v>1136.53</v>
       </c>
       <c r="B4" t="n">
-        <v>24362501.53057577</v>
+        <v>1155.23</v>
       </c>
       <c r="C4" t="n">
-        <v>2537</v>
+        <v>112.9</v>
       </c>
       <c r="D4" t="n">
-        <v>24417747.04418777</v>
+        <v>11377810.79</v>
       </c>
       <c r="E4" t="n">
-        <v>-55245.51361199468</v>
+        <v>11565015.62</v>
       </c>
       <c r="F4" t="n">
-        <v>15429</v>
+        <v>-187204.83</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>37032</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>15429</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0006333093496427727</v>
+        <v>37032</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00325</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2531.26</v>
+        <v>1138.74</v>
       </c>
       <c r="B5" t="n">
-        <v>24362501.53057577</v>
+        <v>1155.23</v>
       </c>
       <c r="C5" t="n">
-        <v>2537</v>
+        <v>112.9</v>
       </c>
       <c r="D5" t="n">
-        <v>24417747.04418777</v>
+        <v>11399935.12</v>
       </c>
       <c r="E5" t="n">
-        <v>-55245.51361199468</v>
+        <v>11565015.62</v>
       </c>
       <c r="F5" t="n">
-        <v>20572</v>
+        <v>-165080.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>49376</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>20572</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0008444124661903637</v>
+        <v>49376</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.00433</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2531.26</v>
+        <v>1139.61</v>
       </c>
       <c r="B6" t="n">
-        <v>24362501.53057577</v>
+        <v>1155.23</v>
       </c>
       <c r="C6" t="n">
-        <v>2537</v>
+        <v>112.9</v>
       </c>
       <c r="D6" t="n">
-        <v>24417747.04418777</v>
+        <v>11408644.7</v>
       </c>
       <c r="E6" t="n">
-        <v>-55245.51361199468</v>
+        <v>11565015.62</v>
       </c>
       <c r="F6" t="n">
-        <v>25715</v>
+        <v>-156370.92</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>61720</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25715</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001055515582737955</v>
+        <v>61720</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.00541</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2531.26</v>
+        <v>1142.13</v>
       </c>
       <c r="B7" t="n">
-        <v>24362501.53057577</v>
+        <v>1155.23</v>
       </c>
       <c r="C7" t="n">
-        <v>2537</v>
+        <v>112.9</v>
       </c>
       <c r="D7" t="n">
-        <v>24417747.04418777</v>
+        <v>11433872.44</v>
       </c>
       <c r="E7" t="n">
-        <v>-55245.51361199468</v>
+        <v>11565015.62</v>
       </c>
       <c r="F7" t="n">
-        <v>30858</v>
+        <v>-131143.18</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>74064</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>30858</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001266618699285545</v>
+        <v>74064</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.00648</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2531.26</v>
+        <v>1143</v>
       </c>
       <c r="B8" t="n">
-        <v>24362501.53057577</v>
+        <v>1155.23</v>
       </c>
       <c r="C8" t="n">
-        <v>2537</v>
+        <v>112.9</v>
       </c>
       <c r="D8" t="n">
-        <v>24417747.04418777</v>
+        <v>11442582.02</v>
       </c>
       <c r="E8" t="n">
-        <v>-55245.51361199468</v>
+        <v>11565015.62</v>
       </c>
       <c r="F8" t="n">
-        <v>36001</v>
+        <v>-122433.6</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>86408</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>36001</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001477721815833136</v>
+        <v>86408</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.00755</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2531.26</v>
+        <v>1145.21</v>
       </c>
       <c r="B9" t="n">
-        <v>24362501.53057577</v>
+        <v>1155.23</v>
       </c>
       <c r="C9" t="n">
-        <v>2537</v>
+        <v>112.9</v>
       </c>
       <c r="D9" t="n">
-        <v>24417747.04418777</v>
+        <v>11464706.35</v>
       </c>
       <c r="E9" t="n">
-        <v>-55245.51361199468</v>
+        <v>11565015.62</v>
       </c>
       <c r="F9" t="n">
-        <v>41144</v>
+        <v>-100309.27</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>98752</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>41144</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001688824932380727</v>
+        <v>98752</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00861</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2531.26</v>
+        <v>1146.08</v>
       </c>
       <c r="B10" t="n">
-        <v>24362501.53057577</v>
+        <v>1155.23</v>
       </c>
       <c r="C10" t="n">
-        <v>2537</v>
+        <v>112.9</v>
       </c>
       <c r="D10" t="n">
-        <v>24417747.04418777</v>
+        <v>11473415.93</v>
       </c>
       <c r="E10" t="n">
-        <v>-55245.51361199468</v>
+        <v>11565015.62</v>
       </c>
       <c r="F10" t="n">
-        <v>46287</v>
+        <v>-91599.69</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>111096</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>46287</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001899928048928318</v>
+        <v>111096</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.009679999999999999</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1148.68</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1155.23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11499445.55</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11565015.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-65570.07000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>123440</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>123440</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.01073</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1149.55</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1155.23</v>
+      </c>
+      <c r="C12" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11508155.13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11565015.62</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-56860.49</v>
+      </c>
+      <c r="G12" t="n">
+        <v>135784</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>135784</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1151.68</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1155.23</v>
+      </c>
+      <c r="C13" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11529479.58</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11565015.62</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-35536.04</v>
+      </c>
+      <c r="G13" t="n">
+        <v>148128</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>148128</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.01285</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1152.55</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1155.23</v>
+      </c>
+      <c r="C14" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11538189.16</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11565015.62</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-26826.46</v>
+      </c>
+      <c r="G14" t="n">
+        <v>160472</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>160472</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.01391</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1153.41</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1155.23</v>
+      </c>
+      <c r="C15" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11546798.63</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11565015.62</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-18216.99</v>
+      </c>
+      <c r="G15" t="n">
+        <v>172816</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>172816</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.01497</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1153.18</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1155.23</v>
+      </c>
+      <c r="C16" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11544497.1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11565015.62</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-20518.52</v>
+      </c>
+      <c r="G16" t="n">
+        <v>185160</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>185160</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.01604</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2024-05-02 17:09:21.054701</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/server/src/static/report.xlsx
+++ b/server/src/static/report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,658 +441,336 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>cut_plan_volume</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>lag_depth</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>well_diam</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cut_plan_volume</t>
+          <t>cut_plan_volume_with_out_well</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cut_plan_volume_with_out_well</t>
+          <t>cut_plan_volume_in_well</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>cut_plan_volume_in_well</t>
+          <t>cut_fact_volume_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>cut_fact_volume_1</t>
+          <t>cut_fact_volume_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>cut_fact_volume_2</t>
+          <t>cut_fact_volume_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>cut_fact_volume_3</t>
+          <t>cut_fact_volume</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>cut_fact_volume</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>cleaning_factor</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1130.93</v>
+        <v>2531.26</v>
       </c>
       <c r="B2" t="n">
-        <v>1155.23</v>
+        <v>24362501.53057577</v>
       </c>
       <c r="C2" t="n">
-        <v>112.9</v>
+        <v>2537</v>
       </c>
       <c r="D2" t="n">
-        <v>11321749.15</v>
+        <v>24417747.04418777</v>
       </c>
       <c r="E2" t="n">
-        <v>11565015.62</v>
+        <v>-55245.51361199468</v>
       </c>
       <c r="F2" t="n">
-        <v>-243266.47</v>
+        <v>5143</v>
       </c>
       <c r="G2" t="n">
-        <v>12344</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5143</v>
       </c>
       <c r="J2" t="n">
-        <v>12344</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.00109</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
+        <v>0.0002111031165475909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1135.66</v>
+        <v>2531.26</v>
       </c>
       <c r="B3" t="n">
-        <v>1155.23</v>
+        <v>24362501.53057577</v>
       </c>
       <c r="C3" t="n">
-        <v>112.9</v>
+        <v>2537</v>
       </c>
       <c r="D3" t="n">
-        <v>11369101.21</v>
+        <v>24417747.04418777</v>
       </c>
       <c r="E3" t="n">
-        <v>11565015.62</v>
+        <v>-55245.51361199468</v>
       </c>
       <c r="F3" t="n">
-        <v>-195914.41</v>
+        <v>10286</v>
       </c>
       <c r="G3" t="n">
-        <v>24688</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10286</v>
       </c>
       <c r="J3" t="n">
-        <v>24688</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.00217</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
+        <v>0.0004222062330951818</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1136.53</v>
+        <v>2531.26</v>
       </c>
       <c r="B4" t="n">
-        <v>1155.23</v>
+        <v>24362501.53057577</v>
       </c>
       <c r="C4" t="n">
-        <v>112.9</v>
+        <v>2537</v>
       </c>
       <c r="D4" t="n">
-        <v>11377810.79</v>
+        <v>24417747.04418777</v>
       </c>
       <c r="E4" t="n">
-        <v>11565015.62</v>
+        <v>-55245.51361199468</v>
       </c>
       <c r="F4" t="n">
-        <v>-187204.83</v>
+        <v>15429</v>
       </c>
       <c r="G4" t="n">
-        <v>37032</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15429</v>
       </c>
       <c r="J4" t="n">
-        <v>37032</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.00325</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
+        <v>0.0006333093496427727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1138.74</v>
+        <v>2531.26</v>
       </c>
       <c r="B5" t="n">
-        <v>1155.23</v>
+        <v>24362501.53057577</v>
       </c>
       <c r="C5" t="n">
-        <v>112.9</v>
+        <v>2537</v>
       </c>
       <c r="D5" t="n">
-        <v>11399935.12</v>
+        <v>24417747.04418777</v>
       </c>
       <c r="E5" t="n">
-        <v>11565015.62</v>
+        <v>-55245.51361199468</v>
       </c>
       <c r="F5" t="n">
-        <v>-165080.5</v>
+        <v>20572</v>
       </c>
       <c r="G5" t="n">
-        <v>49376</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>20572</v>
       </c>
       <c r="J5" t="n">
-        <v>49376</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.00433</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
+        <v>0.0008444124661903637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1139.61</v>
+        <v>2531.26</v>
       </c>
       <c r="B6" t="n">
-        <v>1155.23</v>
+        <v>24362501.53057577</v>
       </c>
       <c r="C6" t="n">
-        <v>112.9</v>
+        <v>2537</v>
       </c>
       <c r="D6" t="n">
-        <v>11408644.7</v>
+        <v>24417747.04418777</v>
       </c>
       <c r="E6" t="n">
-        <v>11565015.62</v>
+        <v>-55245.51361199468</v>
       </c>
       <c r="F6" t="n">
-        <v>-156370.92</v>
+        <v>25715</v>
       </c>
       <c r="G6" t="n">
-        <v>61720</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>25715</v>
       </c>
       <c r="J6" t="n">
-        <v>61720</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.00541</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
+        <v>0.001055515582737955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1142.13</v>
+        <v>2531.26</v>
       </c>
       <c r="B7" t="n">
-        <v>1155.23</v>
+        <v>24362501.53057577</v>
       </c>
       <c r="C7" t="n">
-        <v>112.9</v>
+        <v>2537</v>
       </c>
       <c r="D7" t="n">
-        <v>11433872.44</v>
+        <v>24417747.04418777</v>
       </c>
       <c r="E7" t="n">
-        <v>11565015.62</v>
+        <v>-55245.51361199468</v>
       </c>
       <c r="F7" t="n">
-        <v>-131143.18</v>
+        <v>30858</v>
       </c>
       <c r="G7" t="n">
-        <v>74064</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>30858</v>
       </c>
       <c r="J7" t="n">
-        <v>74064</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.00648</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
+        <v>0.001266618699285545</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1143</v>
+        <v>2531.26</v>
       </c>
       <c r="B8" t="n">
-        <v>1155.23</v>
+        <v>24362501.53057577</v>
       </c>
       <c r="C8" t="n">
-        <v>112.9</v>
+        <v>2537</v>
       </c>
       <c r="D8" t="n">
-        <v>11442582.02</v>
+        <v>24417747.04418777</v>
       </c>
       <c r="E8" t="n">
-        <v>11565015.62</v>
+        <v>-55245.51361199468</v>
       </c>
       <c r="F8" t="n">
-        <v>-122433.6</v>
+        <v>36001</v>
       </c>
       <c r="G8" t="n">
-        <v>86408</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>36001</v>
       </c>
       <c r="J8" t="n">
-        <v>86408</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.00755</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
+        <v>0.001477721815833136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1145.21</v>
+        <v>2531.26</v>
       </c>
       <c r="B9" t="n">
-        <v>1155.23</v>
+        <v>24362501.53057577</v>
       </c>
       <c r="C9" t="n">
-        <v>112.9</v>
+        <v>2537</v>
       </c>
       <c r="D9" t="n">
-        <v>11464706.35</v>
+        <v>24417747.04418777</v>
       </c>
       <c r="E9" t="n">
-        <v>11565015.62</v>
+        <v>-55245.51361199468</v>
       </c>
       <c r="F9" t="n">
-        <v>-100309.27</v>
+        <v>41144</v>
       </c>
       <c r="G9" t="n">
-        <v>98752</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>41144</v>
       </c>
       <c r="J9" t="n">
-        <v>98752</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.00861</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
+        <v>0.001688824932380727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1146.08</v>
+        <v>2531.26</v>
       </c>
       <c r="B10" t="n">
-        <v>1155.23</v>
+        <v>24362501.53057577</v>
       </c>
       <c r="C10" t="n">
-        <v>112.9</v>
+        <v>2537</v>
       </c>
       <c r="D10" t="n">
-        <v>11473415.93</v>
+        <v>24417747.04418777</v>
       </c>
       <c r="E10" t="n">
-        <v>11565015.62</v>
+        <v>-55245.51361199468</v>
       </c>
       <c r="F10" t="n">
-        <v>-91599.69</v>
+        <v>46287</v>
       </c>
       <c r="G10" t="n">
-        <v>111096</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>46287</v>
       </c>
       <c r="J10" t="n">
-        <v>111096</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.009679999999999999</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1148.68</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1155.23</v>
-      </c>
-      <c r="C11" t="n">
-        <v>112.9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11499445.55</v>
-      </c>
-      <c r="E11" t="n">
-        <v>11565015.62</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-65570.07000000001</v>
-      </c>
-      <c r="G11" t="n">
-        <v>123440</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>123440</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.01073</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1149.55</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1155.23</v>
-      </c>
-      <c r="C12" t="n">
-        <v>112.9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11508155.13</v>
-      </c>
-      <c r="E12" t="n">
-        <v>11565015.62</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-56860.49</v>
-      </c>
-      <c r="G12" t="n">
-        <v>135784</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>135784</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.0118</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1151.68</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1155.23</v>
-      </c>
-      <c r="C13" t="n">
-        <v>112.9</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11529479.58</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11565015.62</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-35536.04</v>
-      </c>
-      <c r="G13" t="n">
-        <v>148128</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>148128</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.01285</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1152.55</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1155.23</v>
-      </c>
-      <c r="C14" t="n">
-        <v>112.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11538189.16</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11565015.62</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-26826.46</v>
-      </c>
-      <c r="G14" t="n">
-        <v>160472</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>160472</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.01391</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1153.41</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1155.23</v>
-      </c>
-      <c r="C15" t="n">
-        <v>112.9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11546798.63</v>
-      </c>
-      <c r="E15" t="n">
-        <v>11565015.62</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-18216.99</v>
-      </c>
-      <c r="G15" t="n">
-        <v>172816</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>172816</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.01497</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1153.18</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1155.23</v>
-      </c>
-      <c r="C16" t="n">
-        <v>112.9</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11544497.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11565015.62</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-20518.52</v>
-      </c>
-      <c r="G16" t="n">
-        <v>185160</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>185160</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.01604</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2024-05-02 17:09:21.054701</t>
-        </is>
+        <v>0.001899928048928318</v>
       </c>
     </row>
   </sheetData>
